--- a/data_year/zb/国民经济核算/投入产出完全消耗系数/农、林、牧、渔业投入产出完全消耗系数.xlsx
+++ b/data_year/zb/国民经济核算/投入产出完全消耗系数/农、林、牧、渔业投入产出完全消耗系数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,280 +523,222 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.03029956435103</v>
+        <v>0.029929737746091</v>
       </c>
       <c r="C2" t="n">
-        <v>0.033480846328215</v>
+        <v>0.0336703899734</v>
       </c>
       <c r="D2" t="n">
-        <v>0.24849910058633</v>
+        <v>0.249625263512799</v>
       </c>
       <c r="E2" t="n">
-        <v>0.203120110105609</v>
+        <v>0.207702468812148</v>
       </c>
       <c r="F2" t="n">
-        <v>0.00143429864121</v>
+        <v>0.001631979252026</v>
       </c>
       <c r="G2" t="n">
-        <v>0.016928594837464</v>
+        <v>0.020084307721689</v>
       </c>
       <c r="H2" t="n">
-        <v>0.044987224961106</v>
+        <v>0.045646400752227</v>
       </c>
       <c r="I2" t="n">
-        <v>0.081847361876801</v>
+        <v>0.079033023778617</v>
       </c>
       <c r="J2" t="n">
-        <v>0.043126898611677</v>
+        <v>0.040659500680878</v>
       </c>
       <c r="K2" t="n">
-        <v>0.057681782446821</v>
+        <v>0.057074964492497</v>
       </c>
       <c r="L2" t="n">
-        <v>0.011971739376503</v>
+        <v>0.0124166014459</v>
       </c>
       <c r="M2" t="n">
-        <v>0.054962879305567</v>
+        <v>0.062243369081873</v>
       </c>
       <c r="N2" t="n">
-        <v>0.058639728979957</v>
+        <v>0.06687215122653099</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0478124182774</v>
+        <v>0.046077368891493</v>
       </c>
       <c r="P2" t="n">
-        <v>0.026734514978266</v>
+        <v>0.029045963680438</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.009271910412158999</v>
+        <v>0.010747303458119</v>
       </c>
       <c r="R2" t="n">
-        <v>0.160854089144849</v>
+        <v>0.176006986545886</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.029929737746091</v>
+        <v>0.018362206917639</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0336703899734</v>
+        <v>0.023776224844497</v>
       </c>
       <c r="D3" t="n">
-        <v>0.249625263512799</v>
+        <v>0.252496351634727</v>
       </c>
       <c r="E3" t="n">
-        <v>0.207702468812148</v>
+        <v>0.218528525024169</v>
       </c>
       <c r="F3" t="n">
-        <v>0.001631979252026</v>
+        <v>0.002594913103192</v>
       </c>
       <c r="G3" t="n">
-        <v>0.020084307721689</v>
+        <v>0.024809853633364</v>
       </c>
       <c r="H3" t="n">
-        <v>0.045646400752227</v>
+        <v>0.051005831217488</v>
       </c>
       <c r="I3" t="n">
-        <v>0.079033023778617</v>
+        <v>0.054527286666679</v>
       </c>
       <c r="J3" t="n">
-        <v>0.040659500680878</v>
+        <v>0.050499252613079</v>
       </c>
       <c r="K3" t="n">
-        <v>0.057074964492497</v>
+        <v>0.048307866599161</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0124166014459</v>
+        <v>0.011789583939492</v>
       </c>
       <c r="M3" t="n">
-        <v>0.062243369081873</v>
+        <v>0.048561499236095</v>
       </c>
       <c r="N3" t="n">
-        <v>0.06687215122653099</v>
+        <v>0.063934064110497</v>
       </c>
       <c r="O3" t="n">
-        <v>0.046077368891493</v>
+        <v>0.032200526953256</v>
       </c>
       <c r="P3" t="n">
-        <v>0.029045963680438</v>
+        <v>0.040112605906625</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.010747303458119</v>
+        <v>0.006632366738164</v>
       </c>
       <c r="R3" t="n">
-        <v>0.176006986545886</v>
+        <v>0.185911313383613</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.018362206917639</v>
+        <v>0.018994374866516</v>
       </c>
       <c r="C4" t="n">
-        <v>0.023776224844497</v>
+        <v>0.024864857972197</v>
       </c>
       <c r="D4" t="n">
-        <v>0.252496351634727</v>
+        <v>0.265271103963298</v>
       </c>
       <c r="E4" t="n">
-        <v>0.218528525024169</v>
+        <v>0.228750608619436</v>
       </c>
       <c r="F4" t="n">
-        <v>0.002594913103192</v>
+        <v>0.002566941773852</v>
       </c>
       <c r="G4" t="n">
-        <v>0.024809853633364</v>
+        <v>0.032640932377284</v>
       </c>
       <c r="H4" t="n">
-        <v>0.051005831217488</v>
+        <v>0.053708183324867</v>
       </c>
       <c r="I4" t="n">
-        <v>0.054527286666679</v>
+        <v>0.059823512360192</v>
       </c>
       <c r="J4" t="n">
-        <v>0.050499252613079</v>
+        <v>0.036156672583302</v>
       </c>
       <c r="K4" t="n">
-        <v>0.048307866599161</v>
+        <v>0.043822055728981</v>
       </c>
       <c r="L4" t="n">
-        <v>0.011789583939492</v>
+        <v>0.014077130109623</v>
       </c>
       <c r="M4" t="n">
-        <v>0.048561499236095</v>
+        <v>0.049733659593383</v>
       </c>
       <c r="N4" t="n">
-        <v>0.063934064110497</v>
+        <v>0.038776266255825</v>
       </c>
       <c r="O4" t="n">
-        <v>0.032200526953256</v>
+        <v>0.028537777221952</v>
       </c>
       <c r="P4" t="n">
-        <v>0.040112605906625</v>
+        <v>0.040942866453586</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.006632366738164</v>
+        <v>0.006805616228208</v>
       </c>
       <c r="R4" t="n">
-        <v>0.185911313383613</v>
+        <v>0.22878423767151</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.018994374866516</v>
+        <v>0.002976459476131</v>
       </c>
       <c r="C5" t="n">
-        <v>0.024864857972197</v>
+        <v>0.048198851324228</v>
       </c>
       <c r="D5" t="n">
-        <v>0.265271103963298</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.228750608619436</v>
-      </c>
+        <v>0.223951911312164</v>
+      </c>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>0.002566941773852</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.032640932377284</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.053708183324867</v>
-      </c>
+        <v>0.001783733298046</v>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>0.059823512360192</v>
+        <v>0.062043340497848</v>
       </c>
       <c r="J5" t="n">
-        <v>0.036156672583302</v>
+        <v>0.206650398488878</v>
       </c>
       <c r="K5" t="n">
-        <v>0.043822055728981</v>
+        <v>0.03739050539085</v>
       </c>
       <c r="L5" t="n">
-        <v>0.014077130109623</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.049733659593383</v>
-      </c>
+        <v>0.007979554009633001</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
       <c r="N5" t="n">
-        <v>0.038776266255825</v>
+        <v>0.046417280357871</v>
       </c>
       <c r="O5" t="n">
-        <v>0.028537777221952</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0.040942866453586</v>
-      </c>
+        <v>0.024295204490765</v>
+      </c>
+      <c r="P5" t="inlineStr"/>
       <c r="Q5" t="n">
-        <v>0.006805616228208</v>
+        <v>0.005451460487664</v>
       </c>
       <c r="R5" t="n">
-        <v>0.22878423767151</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.002976459476131</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.048198851324228</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.223951911312164</v>
-      </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="n">
-        <v>0.001783733298046</v>
-      </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="n">
-        <v>0.062043340497848</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.206650398488878</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.03739050539085</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.007979554009633001</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
-        <v>0.046417280357871</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0.024295204490765</v>
-      </c>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="n">
-        <v>0.005451460487664</v>
-      </c>
-      <c r="R6" t="n">
         <v>0.145676924511628</v>
       </c>
     </row>
